--- a/3.0_Software/3.1_Erfassungsseite Dienstleister/Erfassungsformular Dienstleister_neu.xlsx
+++ b/3.0_Software/3.1_Erfassungsseite Dienstleister/Erfassungsformular Dienstleister_neu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="13140" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="13140" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Wellness_Masseur" sheetId="20" r:id="rId1"/>
     <sheet name="Wellness_Kosmetiker" sheetId="22" r:id="rId2"/>
     <sheet name="Bewegung" sheetId="7" r:id="rId3"/>
-    <sheet name="Entertainment" sheetId="12" r:id="rId4"/>
+    <sheet name="Unterhaltung" sheetId="12" r:id="rId4"/>
     <sheet name="Kultur" sheetId="21" r:id="rId5"/>
     <sheet name="Kulinarisches" sheetId="23" r:id="rId6"/>
-    <sheet name="Transport" sheetId="25" r:id="rId7"/>
-    <sheet name="Kategorien_Dienstl." sheetId="24" r:id="rId8"/>
+    <sheet name="Studenten" sheetId="26" r:id="rId7"/>
+    <sheet name="Transport" sheetId="25" r:id="rId8"/>
+    <sheet name="Kategorien_Dienstl." sheetId="24" r:id="rId9"/>
+    <sheet name="Kategorien_neu" sheetId="28" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="188">
   <si>
     <t>Anrede</t>
   </si>
@@ -200,6 +202,300 @@
   </si>
   <si>
     <t>Anmerkungen</t>
+  </si>
+  <si>
+    <t>Um Ihre Angebote zielgenau anbieten zu können, benötigen wir noch einige Angaben zu Ihrem Fachgebiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um Ihre Dienstleistung zielgenau anbieten zu können, benötigen wir noch einige Angaben </t>
+  </si>
+  <si>
+    <t>Personal Coach Laufen/Joggen im Park</t>
+  </si>
+  <si>
+    <t>Welche Sportutensilien stehen Ihnen zur Verfügung (für eine Gruppe von mindestens 6 Personen)</t>
+  </si>
+  <si>
+    <t>Musiker/Sänger</t>
+  </si>
+  <si>
+    <t>Freitextfeld (bitte machen Sie genaue Angaben zu Ihrer Dienstleistung; ggf. Webseite)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anmerkungen </t>
+  </si>
+  <si>
+    <t>Qualifikationen &amp; Fähigkeiten</t>
+  </si>
+  <si>
+    <t>Nageldesign</t>
+  </si>
+  <si>
+    <t>Pediküre</t>
+  </si>
+  <si>
+    <t>Maniküre </t>
+  </si>
+  <si>
+    <t>Typ- &amp; Stilberatung</t>
+  </si>
+  <si>
+    <t>Make up Artist</t>
+  </si>
+  <si>
+    <t>Stadtführungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualifikationen </t>
+  </si>
+  <si>
+    <t>Welche Dienstleistungen können Sie einer Gruppe von x Personen anbieten?</t>
+  </si>
+  <si>
+    <t>Weinverkostung</t>
+  </si>
+  <si>
+    <t>Whikeytasting</t>
+  </si>
+  <si>
+    <t>Kosmetik allgemein</t>
+  </si>
+  <si>
+    <t>Verfügen Sie über einen PKW oder eine andere Möglichkeit um zu einem mit dem Kunden vereinbarten Treffpunkt (Rhein-Main Gebiet) zu gelangen?</t>
+  </si>
+  <si>
+    <t>Welche Qualifikationen besitzen Sie eine um eine der untenstehenden kulturellen Angebote zu erbringen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Können Sie Ihre Dienstleistung auch mobil erbringen? (Hotel) </t>
+  </si>
+  <si>
+    <t>Pilates (Hotel/Fremd Studio/Outdoor)</t>
+  </si>
+  <si>
+    <t>Kategotien/Dienstleiter</t>
+  </si>
+  <si>
+    <t>Wellness</t>
+  </si>
+  <si>
+    <t>Bewegung</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Kultur</t>
+  </si>
+  <si>
+    <t>Stadtführer</t>
+  </si>
+  <si>
+    <t>Taxiunternehmen</t>
+  </si>
+  <si>
+    <t>Sommelier</t>
+  </si>
+  <si>
+    <t>Chocolatier</t>
+  </si>
+  <si>
+    <t>Destilllateur</t>
+  </si>
+  <si>
+    <t>Käsesommelier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barkeeper </t>
+  </si>
+  <si>
+    <t>Schriftsteller/Vorleser</t>
+  </si>
+  <si>
+    <t>Kunstführer</t>
+  </si>
+  <si>
+    <t>Kosmetiker</t>
+  </si>
+  <si>
+    <t>Nageldesigner</t>
+  </si>
+  <si>
+    <t>Friseur/Hairstylist</t>
+  </si>
+  <si>
+    <t>Make-up Artist</t>
+  </si>
+  <si>
+    <t>Wanderführer</t>
+  </si>
+  <si>
+    <t>Tanzlehrer</t>
+  </si>
+  <si>
+    <t>Yogalehrer</t>
+  </si>
+  <si>
+    <t>Tai Chi/Qigong Lehrer</t>
+  </si>
+  <si>
+    <t>Fitness Trainer /Personal Coach</t>
+  </si>
+  <si>
+    <t>Entertainer/Moderator</t>
+  </si>
+  <si>
+    <t>Kabarettist</t>
+  </si>
+  <si>
+    <t>Schnellzeichner</t>
+  </si>
+  <si>
+    <t>Schauspieler</t>
+  </si>
+  <si>
+    <t>Illusionist</t>
+  </si>
+  <si>
+    <t>Limosinenservice</t>
+  </si>
+  <si>
+    <t>Velotaxi Unternehmen</t>
+  </si>
+  <si>
+    <t>Fahrrad Verleih</t>
+  </si>
+  <si>
+    <t>DROPDOWN</t>
+  </si>
+  <si>
+    <t>Podologe</t>
+  </si>
+  <si>
+    <t>Wanderführungen</t>
+  </si>
+  <si>
+    <t>Kurzprogramme rund um Tanz</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Museumsführungen/Kulturführungen</t>
+  </si>
+  <si>
+    <t>Tai Chi/Qigong (Hotel/Fremd Studio/Outdoor)</t>
+  </si>
+  <si>
+    <t>Yoga (Hotel/Fremd Studio/Outdoor)</t>
+  </si>
+  <si>
+    <t>Hair Stylist/Friseur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kosmetiker; Nageldesigner; Friseur/Hairstylist; Make-up Artist</t>
+  </si>
+  <si>
+    <t>Stadtführer, Kunstführer, Schriftsteller/Vorleser</t>
+  </si>
+  <si>
+    <t>Musiker/Sänger; Illusionist; Entertainer/Moderator; Schnellzeichner; Schauspieler</t>
+  </si>
+  <si>
+    <t>Cocktail Kurs</t>
+  </si>
+  <si>
+    <t>Schokoladenverkostung (ideal in Kombination mit Wein, Spirituosen etc.)</t>
+  </si>
+  <si>
+    <t>Käseverkostung (ideal in Kombination mit Wein)</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Sommelier; Chocolatier; Destillateur; Käsesommelier; Barkeeper; Restaurant</t>
+  </si>
+  <si>
+    <t>Taxiunternehmen; Limosinenservice; Voelotaxi Unternehmen; Fahrrad Verleih</t>
+  </si>
+  <si>
+    <t>Welche Transportdienstleistung können erbringen?</t>
+  </si>
+  <si>
+    <t>Taxi-Service</t>
+  </si>
+  <si>
+    <t>Velotaxi-Service</t>
+  </si>
+  <si>
+    <t>Limosinen-Service</t>
+  </si>
+  <si>
+    <t>Fitness Trainer /Personal Coach; Wanderführer; Yogalehrer; Tai Chi/Qigong Lehrer</t>
+  </si>
+  <si>
+    <t>Kulinarisches</t>
+  </si>
+  <si>
+    <t>mit Einschränkung</t>
+  </si>
+  <si>
+    <t>Wie schnell sind Sie gewöhnlich per SMS/E-Mail/Whatsapp zu erreichen?</t>
+  </si>
+  <si>
+    <t>Dropdown (5, 10, 15,20,25…60 Minuten)</t>
+  </si>
+  <si>
+    <t>Studenten</t>
+  </si>
+  <si>
+    <t>Tel. Festnetz</t>
+  </si>
+  <si>
+    <t>E-Mail Adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Können Sie Ihre Dienstleistung auch mobil erbringen? (Hotel; Outdoor; Fitness Studio etc.) </t>
+  </si>
+  <si>
+    <t>Bewegung/Sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falls Sie eine Ausbildung besitzen, welches ist Ihr höchster Ausbildungsgrad? </t>
+  </si>
+  <si>
+    <t>Falls Sie bereits über praktische Erfahrung in Ihrem Fachgebiet verfügen, wie hoch schätzen Sie diese ein?</t>
+  </si>
+  <si>
+    <t>Wie schnell sind Sie gewöhnlich per SMS/E-Mail/WhatsApp zu erreichen?</t>
+  </si>
+  <si>
+    <t>Welche Dienstleistungen aus dem Bereich Sport/Bewegung können Sie einer Gruppe von max. 6 Personen anbieten?</t>
+  </si>
+  <si>
+    <t>Stadtführung</t>
+  </si>
+  <si>
+    <t>Museeumsführung</t>
+  </si>
+  <si>
+    <t>Unterhaltungsprogramm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sportstudenten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Studenten der Kunst- und Kulturwissenschaften</t>
+  </si>
+  <si>
+    <t>Welche Dienstleistungen aus dem Bereich Kultur, Kunst oder Unterhaltung können Sie einer Gruppe von max. 6 Personen anbieten?</t>
+  </si>
+  <si>
+    <t>Personal Coach Laufen/Joggen im Park/Outddor</t>
+  </si>
+  <si>
+    <t>Personal Coach Nordic Walking im Park/Outdoor</t>
   </si>
   <si>
     <r>
@@ -207,10 +503,9 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <i/>
-        <sz val="14"/>
-        <color theme="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -219,9 +514,8 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -230,254 +524,110 @@
     </r>
   </si>
   <si>
-    <t>Um Ihre Angebote zielgenau anbieten zu können, benötigen wir noch einige Angaben zu Ihrem Fachgebiet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Um Ihre Dienstleistung zielgenau anbieten zu können, benötigen wir noch einige Angaben </t>
-  </si>
-  <si>
-    <t>Personal Coach Laufen/Joggen im Park</t>
-  </si>
-  <si>
-    <t>Welche Sportutensilien stehen Ihnen zur Verfügung (für eine Gruppe von mindestens 6 Personen)</t>
-  </si>
-  <si>
-    <t>Musiker/Sänger</t>
-  </si>
-  <si>
-    <t>Freitextfeld (bitte machen Sie genaue Angaben zu Ihrer Dienstleistung; ggf. Webseite)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anmerkungen </t>
-  </si>
-  <si>
-    <t>Qualifikationen &amp; Fähigkeiten</t>
-  </si>
-  <si>
-    <t>Nageldesign</t>
-  </si>
-  <si>
-    <t>Pediküre</t>
-  </si>
-  <si>
-    <t>Maniküre </t>
-  </si>
-  <si>
-    <t>Typ- &amp; Stilberatung</t>
-  </si>
-  <si>
-    <t>Make up Artist</t>
-  </si>
-  <si>
-    <t>Stadtführungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualifikationen </t>
-  </si>
-  <si>
-    <t>Welche Dienstleistungen können Sie einer Gruppe von x Personen anbieten?</t>
-  </si>
-  <si>
-    <t>Weinverkostung</t>
-  </si>
-  <si>
-    <t>Whikeytasting</t>
-  </si>
-  <si>
-    <t>Kosmetik allgemein</t>
-  </si>
-  <si>
-    <t>Verfügen Sie über einen PKW oder eine andere Möglichkeit um zu einem mit dem Kunden vereinbarten Treffpunkt (Rhein-Main Gebiet) zu gelangen?</t>
-  </si>
-  <si>
-    <t>Welche Qualifikationen besitzen Sie eine um eine der untenstehenden kulturellen Angebote zu erbringen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Können Sie Ihre Dienstleistung auch mobil erbringen? (Hotel) </t>
-  </si>
-  <si>
-    <t>Pilates (Hotel/Fremd Studio/Outdoor)</t>
-  </si>
-  <si>
-    <t>Kategotien/Dienstleiter</t>
-  </si>
-  <si>
-    <t>Wellness</t>
-  </si>
-  <si>
-    <t>Bewegung</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>Kultur</t>
-  </si>
-  <si>
-    <t>Stadtführer</t>
-  </si>
-  <si>
-    <t>Taxiunternehmen</t>
-  </si>
-  <si>
-    <t>Sommelier</t>
-  </si>
-  <si>
-    <t>Chocolatier</t>
-  </si>
-  <si>
-    <t>Destilllateur</t>
-  </si>
-  <si>
-    <t>Käsesommelier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barkeeper </t>
-  </si>
-  <si>
-    <t>Schriftsteller/Vorleser</t>
-  </si>
-  <si>
-    <t>Kunstführer</t>
-  </si>
-  <si>
-    <t>Kosmetiker</t>
-  </si>
-  <si>
-    <t>Nageldesigner</t>
-  </si>
-  <si>
-    <t>Friseur/Hairstylist</t>
-  </si>
-  <si>
-    <t>Make-up Artist</t>
-  </si>
-  <si>
-    <t>Wanderführer</t>
-  </si>
-  <si>
-    <t>Tanzlehrer</t>
-  </si>
-  <si>
-    <t>Yogalehrer</t>
-  </si>
-  <si>
-    <t>Tai Chi/Qigong Lehrer</t>
-  </si>
-  <si>
-    <t>Fitness Trainer /Personal Coach</t>
-  </si>
-  <si>
-    <t>Entertainer/Moderator</t>
-  </si>
-  <si>
-    <t>Kabarettist</t>
-  </si>
-  <si>
-    <t>Schnellzeichner</t>
-  </si>
-  <si>
-    <t>Schauspieler</t>
-  </si>
-  <si>
-    <t>Illusionist</t>
-  </si>
-  <si>
-    <t>Limosinenservice</t>
-  </si>
-  <si>
-    <t>Velotaxi Unternehmen</t>
-  </si>
-  <si>
-    <t>Fahrrad Verleih</t>
-  </si>
-  <si>
-    <t>DROPDOWN</t>
-  </si>
-  <si>
-    <t>Podologe</t>
-  </si>
-  <si>
-    <t>Wanderführungen</t>
-  </si>
-  <si>
-    <t>Kurzprogramme rund um Tanz</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Museumsführungen/Kulturführungen</t>
-  </si>
-  <si>
-    <t>Tai Chi/Qigong (Hotel/Fremd Studio/Outdoor)</t>
-  </si>
-  <si>
-    <t>Yoga (Hotel/Fremd Studio/Outdoor)</t>
-  </si>
-  <si>
-    <t>Hair Stylist/Friseur</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kosmetiker; Nageldesigner; Friseur/Hairstylist; Make-up Artist</t>
-  </si>
-  <si>
-    <t>Stadtführer, Kunstführer, Schriftsteller/Vorleser</t>
-  </si>
-  <si>
-    <t>Musiker/Sänger; Illusionist; Entertainer/Moderator; Schnellzeichner; Schauspieler</t>
-  </si>
-  <si>
-    <t>Cocktail Kurs</t>
-  </si>
-  <si>
-    <t>Schokoladenverkostung (ideal in Kombination mit Wein, Spirituosen etc.)</t>
-  </si>
-  <si>
-    <t>Käseverkostung (ideal in Kombination mit Wein)</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>Sommelier; Chocolatier; Destillateur; Käsesommelier; Barkeeper; Restaurant</t>
-  </si>
-  <si>
-    <t>Taxiunternehmen; Limosinenservice; Voelotaxi Unternehmen; Fahrrad Verleih</t>
-  </si>
-  <si>
-    <t>Welche Transportdienstleistung können erbringen?</t>
-  </si>
-  <si>
-    <t>Taxi-Service</t>
-  </si>
-  <si>
-    <t>Velotaxi-Service</t>
-  </si>
-  <si>
-    <t>Limosinen-Service</t>
-  </si>
-  <si>
-    <t>Fitness Trainer /Personal Coach; Wanderführer; Yogalehrer; Tai Chi/Qigong Lehrer</t>
-  </si>
-  <si>
-    <t>Kulinarisches</t>
-  </si>
-  <si>
-    <t>mit Einschränkung</t>
-  </si>
-  <si>
-    <t>Wie schnell sind Sie gewöhnlich per SMS/E-Mail/Whatsapp zu erreichen?</t>
-  </si>
-  <si>
-    <t>Dropdown (5, 10, 15,20,25…60 Minuten)</t>
+    <t xml:space="preserve">Klettern </t>
+  </si>
+  <si>
+    <t>Personal Coach im Klettergarten</t>
+  </si>
+  <si>
+    <t>Laufen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massage </t>
+  </si>
+  <si>
+    <t>Kosmetik</t>
+  </si>
+  <si>
+    <t>Relax, Classic, Intensiv</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Gym, Personal Training, Zumba</t>
+  </si>
+  <si>
+    <t>Jogging, Walking, Wandern</t>
+  </si>
+  <si>
+    <t>Fernöstlich</t>
+  </si>
+  <si>
+    <t>Klettern</t>
+  </si>
+  <si>
+    <t>Gesicht, Waxing, Makeup</t>
+  </si>
+  <si>
+    <t>Yoga, Tai Chi, Pilates</t>
+  </si>
+  <si>
+    <t>Kletterpark, Hochseilgarten</t>
+  </si>
+  <si>
+    <t>Kategorien</t>
+  </si>
+  <si>
+    <t>HG, WI</t>
+  </si>
+  <si>
+    <t>Verkostungen</t>
+  </si>
+  <si>
+    <t>Weinverkostung, Käseverkostung, Whiskeytasting</t>
+  </si>
+  <si>
+    <t>Im Hotel</t>
+  </si>
+  <si>
+    <t>Specials, Bar, Cafe</t>
+  </si>
+  <si>
+    <t>Kunstführer X, Kunstführung Y</t>
+  </si>
+  <si>
+    <t>Stadtführung X, Stadtführung Y, ...</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>Schauspieler; Künstler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruppenspiele </t>
+  </si>
+  <si>
+    <t>Musikraten, Quiz etc.</t>
+  </si>
+  <si>
+    <t>Hotelangebote</t>
+  </si>
+  <si>
+    <t>Irish Evening</t>
+  </si>
+  <si>
+    <t>American Bar</t>
+  </si>
+  <si>
+    <t>Frankfurter Äppelwoi Kneipe</t>
+  </si>
+  <si>
+    <t>Karaokoke Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Internationales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Unterhaltung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,13 +681,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF870019"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -586,9 +729,151 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF870019"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="14"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -601,6 +886,162 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF870019"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -608,8 +1049,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,8 +1096,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -675,58 +1167,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,18 +1239,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -755,24 +1253,275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="19"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="18"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -861,11 +1610,103 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -3675,13 +4516,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>70</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4412,13 +5253,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>72</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>904875</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>72</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4546,13 +5387,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>72</xdr:row>
+          <xdr:row>73</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>904875</xdr:colOff>
-          <xdr:row>72</xdr:row>
+          <xdr:row>73</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4613,13 +5454,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>904875</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4814,13 +5655,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>58</xdr:row>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>933450</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>60</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4881,13 +5722,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>933450</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>61</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4899,73 +5740,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000691C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7274" name="Check Box 83" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7274"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5026,13 +5800,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7275" name="Check Box 83" hidden="1">
+            <xdr:cNvPr id="7274" name="Check Box 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7275"/>
+                  <a14:compatExt spid="_x0000_s7274"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5093,13 +5867,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7276" name="Check Box 83" hidden="1">
+            <xdr:cNvPr id="7275" name="Check Box 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7276"/>
+                  <a14:compatExt spid="_x0000_s7275"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5160,13 +5934,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7278" name="Check Box 83" hidden="1">
+            <xdr:cNvPr id="7276" name="Check Box 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7278"/>
+                  <a14:compatExt spid="_x0000_s7276"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5216,24 +5990,24 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>933450</xdr:colOff>
-          <xdr:row>58</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7279" name="Check Box 21" hidden="1">
+            <xdr:cNvPr id="7278" name="Check Box 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7279"/>
+                  <a14:compatExt spid="_x0000_s7278"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5283,24 +6057,24 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>933450</xdr:colOff>
-          <xdr:row>61</xdr:row>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7280" name="Check Box 83" hidden="1">
+            <xdr:cNvPr id="7279" name="Check Box 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7280"/>
+                  <a14:compatExt spid="_x0000_s7279"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000701C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5361,13 +6135,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7281" name="Check Box 83" hidden="1">
+            <xdr:cNvPr id="7280" name="Check Box 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7281"/>
+                  <a14:compatExt spid="_x0000_s7280"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000711C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000701C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5416,14 +6190,81 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>933450</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7281" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7281"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000711C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>56</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5636,6 +6477,140 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000771C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7288" name="Check Box 120" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7288"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000781C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7289" name="Check Box 121" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7289"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000791C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8519,6 +9494,1418 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>904875</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21505" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21505"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>904875</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21506" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21506"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>904875</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21507" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21507"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>904875</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21508" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21508"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21509" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21509"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21510" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21510"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>933450</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21523" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21523"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>933450</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21524" name="Check Box 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21524"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21525" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21525"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21526" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21526"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>933450</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21527" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21527"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>933450</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21528" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21528"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>933450</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21529" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21529"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>933450</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21530" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21530"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>933450</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21531" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21531"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21532" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21532"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21538" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21538"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21539" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21539"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21540" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21540"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21541" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21541"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21542" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s21542"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026540000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
@@ -8536,7 +10923,7 @@
                   <a14:compatExt spid="_x0000_s20485"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8603,7 +10990,7 @@
                   <a14:compatExt spid="_x0000_s20486"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8670,7 +11057,7 @@
                   <a14:compatExt spid="_x0000_s20487"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8737,7 +11124,7 @@
                   <a14:compatExt spid="_x0000_s20488"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008500000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008500000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9095,279 +11482,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="36"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="3:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="20"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="27"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="25" t="s">
-        <v>135</v>
+      <c r="C36" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="25"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="25"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="22"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="43" t="s">
-        <v>57</v>
+      <c r="C48" s="32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="32"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="20"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="20"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9758,329 +12145,712 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="146" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="146" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="146" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="146" customWidth="1"/>
+    <col min="5" max="5" width="28" style="146" customWidth="1"/>
+    <col min="6" max="6" width="46" style="146" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="146" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="146" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" style="146" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="146" customWidth="1"/>
+    <col min="11" max="13" width="22.7109375" style="146" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="146"/>
+    <col min="16" max="16" width="43" style="146" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" style="146" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="146"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="P2" s="147" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="150" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="E4" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="153"/>
+      <c r="H4" s="154" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="155"/>
+      <c r="P4" s="147" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="156" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="157" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="157" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="158" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q5" s="146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="156" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="157" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="158" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="158" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="146" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="E7" s="157" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="157" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="158" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="158" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q7" s="146" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="E8" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="157" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="158"/>
+      <c r="I8" s="159"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="159"/>
+      <c r="Q9" s="146" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="Q10" s="146" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="161" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="162"/>
+      <c r="E12" s="163" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="164"/>
+      <c r="H12" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="166"/>
+      <c r="P12" s="147" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="167" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="168" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="168" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="166"/>
+      <c r="Q13" s="146" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="167" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="168" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="168" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="166" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" s="166"/>
+      <c r="Q14" s="146" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="167" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="167"/>
+      <c r="E15" s="168" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="168" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="166" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" s="166"/>
+      <c r="Q15" s="146" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="H16" s="166" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16" s="166"/>
+      <c r="Q16" s="146" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="167"/>
+      <c r="C17" s="167"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="Q17" s="146" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="147" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="169" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="146" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="146" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="146" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="146" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P27" s="147" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q28" s="146" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="146" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q30" s="146" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P32" s="147" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="146" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="Q34" s="146" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="Q35" s="146" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="Q36" s="146" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="146" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="Q38" s="146" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P40" s="147" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="Q41" s="146" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="Q42" s="146" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="Q43" s="146" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="Q44" s="146" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="118.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="2" width="4" style="55" customWidth="1"/>
+    <col min="3" max="3" width="118.7109375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="4" style="80" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="55"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="15"/>
+      <c r="C4" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="61"/>
     </row>
     <row r="8" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="10" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="61"/>
     </row>
     <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="I13" s="8"/>
+      <c r="D13" s="61"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="66"/>
     </row>
     <row r="15" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="61"/>
     </row>
     <row r="19" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="61"/>
     </row>
     <row r="20" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="61"/>
     </row>
     <row r="22" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
     </row>
     <row r="23" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="71"/>
     </row>
     <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="71"/>
     </row>
     <row r="25" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="71"/>
     </row>
     <row r="26" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="71"/>
     </row>
     <row r="27" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="71"/>
     </row>
     <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="71"/>
     </row>
     <row r="30" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="27"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="71"/>
     </row>
     <row r="31" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="75"/>
     </row>
     <row r="32" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="75"/>
     </row>
     <row r="33" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="75"/>
     </row>
     <row r="34" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="25" t="s">
-        <v>135</v>
-      </c>
+      <c r="D34" s="75"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="25"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="75"/>
     </row>
     <row r="37" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="75"/>
     </row>
     <row r="38" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="79" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="77" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="25"/>
+      <c r="C41" s="78"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="22"/>
+      <c r="C42" s="81"/>
     </row>
     <row r="43" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="72" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="55" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="11"/>
-    </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="69" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="43" t="s">
-        <v>58</v>
+      <c r="C50" s="82" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C51" s="33"/>
+      <c r="C51" s="83"/>
     </row>
     <row r="52" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C52" s="41" t="s">
-        <v>56</v>
+      <c r="C52" s="84" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="11" t="s">
-        <v>75</v>
+      <c r="C53" s="55" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="85" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C55" s="45" t="s">
+    <row r="56" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C56" s="85" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C56" s="45" t="s">
+    <row r="57" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C57" s="85" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C57" s="45" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="58" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C58" s="45" t="s">
-        <v>65</v>
+      <c r="C58" s="85" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C59" s="45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61"/>
+      <c r="C59" s="85" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="64" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="83" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10517,392 +13287,399 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I77"/>
+  <dimension ref="C2:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="118.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="2" width="4" style="88" customWidth="1"/>
+    <col min="3" max="3" width="118.7109375" style="88" customWidth="1"/>
+    <col min="4" max="4" width="4" style="113" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="88" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="88"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
     </row>
     <row r="3" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="90"/>
     </row>
     <row r="4" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="15"/>
+      <c r="C4" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="92"/>
     </row>
     <row r="5" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="92"/>
     </row>
     <row r="6" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="92"/>
     </row>
     <row r="7" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="92"/>
     </row>
     <row r="8" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="92"/>
     </row>
     <row r="9" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="95"/>
     </row>
     <row r="10" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="95"/>
     </row>
     <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="97"/>
     </row>
     <row r="12" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="I13" s="8"/>
+      <c r="D13" s="95"/>
+      <c r="I13" s="98"/>
     </row>
     <row r="14" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="99"/>
     </row>
     <row r="15" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
     </row>
     <row r="23" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="104"/>
     </row>
     <row r="24" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="104"/>
     </row>
     <row r="25" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="104"/>
     </row>
     <row r="26" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="104"/>
     </row>
     <row r="27" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="104"/>
     </row>
     <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="104"/>
     </row>
     <row r="29" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="104"/>
     </row>
     <row r="30" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="27"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="104"/>
     </row>
     <row r="31" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="108"/>
     </row>
     <row r="32" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="108"/>
     </row>
     <row r="33" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="108"/>
     </row>
     <row r="34" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="3:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="25" t="s">
-        <v>135</v>
-      </c>
+      <c r="D34" s="108"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="88"/>
     </row>
     <row r="36" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="25"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="108"/>
     </row>
     <row r="37" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="108"/>
     </row>
     <row r="38" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="112" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="110" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="111" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="25"/>
+      <c r="C41" s="111"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="22"/>
+      <c r="C42" s="114"/>
     </row>
     <row r="43" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="105" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="88" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="11"/>
-    </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="88" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="102" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C51" s="33"/>
-    </row>
-    <row r="52" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C52" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C51" s="116"/>
+    </row>
+    <row r="52" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C52" s="117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="88" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="20" t="s">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="101" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C65" s="118" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C71" s="117" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63"/>
-    </row>
-    <row r="64" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C64" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C70" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="24" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="110" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="35" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="119" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="34" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="101" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="34" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="101" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C77" s="33" t="s">
+    <row r="78" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C78" s="116" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10922,13 +13699,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>69</xdr:row>
+                    <xdr:row>70</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>914400</xdr:colOff>
-                    <xdr:row>70</xdr:row>
+                    <xdr:row>71</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11164,13 +13941,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>72</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>904875</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>72</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11208,13 +13985,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>72</xdr:row>
+                    <xdr:row>73</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>904875</xdr:colOff>
-                    <xdr:row>72</xdr:row>
+                    <xdr:row>73</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11230,13 +14007,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>73</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>904875</xdr:colOff>
-                    <xdr:row>73</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11296,28 +14073,6 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>58</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>933450</xdr:colOff>
-                    <xdr:row>59</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7273" r:id="rId22" name="Check Box 105">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -11334,19 +14089,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7274" r:id="rId23" name="Check Box 106">
+            <control shapeId="7273" r:id="rId22" name="Check Box 105">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>64</xdr:row>
+                    <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>933450</xdr:colOff>
-                    <xdr:row>65</xdr:row>
+                    <xdr:row>61</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11356,7 +14111,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7275" r:id="rId24" name="Check Box 107">
+            <control shapeId="7274" r:id="rId23" name="Check Box 106">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11378,7 +14133,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7276" r:id="rId25" name="Check Box 108">
+            <control shapeId="7275" r:id="rId24" name="Check Box 107">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11400,7 +14155,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7278" r:id="rId26" name="Check Box 110">
+            <control shapeId="7276" r:id="rId25" name="Check Box 108">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11422,19 +14177,41 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="7278" r:id="rId26" name="Check Box 110">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="7279" r:id="rId27" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>57</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>933450</xdr:colOff>
-                    <xdr:row>58</xdr:row>
+                    <xdr:row>59</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11445,28 +14222,6 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="7280" r:id="rId28" name="Check Box 112">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>60</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>933450</xdr:colOff>
-                    <xdr:row>61</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7281" r:id="rId29" name="Check Box 113">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11488,19 +14243,41 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="7281" r:id="rId29" name="Check Box 113">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:row>63</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="7282" r:id="rId30" name="Check Box 114">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>56</xdr:row>
+                    <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>914400</xdr:colOff>
-                    <xdr:row>57</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11574,6 +14351,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7288" r:id="rId34" name="Check Box 120">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7289" r:id="rId35" name="Check Box 121">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -11585,7 +14406,7 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="C17" sqref="C17:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11609,34 +14430,34 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="11"/>
+      <c r="C4" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="12"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -11644,305 +14465,305 @@
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="27"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="27"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="3:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="25" t="s">
-        <v>135</v>
+      <c r="C36" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="25"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="25"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="43" t="s">
-        <v>58</v>
+      <c r="C47" s="32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="32"/>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C49" s="39" t="s">
-        <v>64</v>
+      <c r="C49" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="37" t="s">
+    <row r="55" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="33"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="44"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="59" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="20"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="64" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="20"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="20"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="20" t="s">
+    <row r="70" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="12"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="20"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="37" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="12"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="20"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="20"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="20"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="76" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="37" t="s">
-        <v>62</v>
+      <c r="C76" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="44"/>
+      <c r="C77" s="33"/>
     </row>
     <row r="81" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12403,8 +15224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12421,280 +15242,280 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
-        <v>121</v>
+      <c r="C4" s="31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="27"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="27"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="25"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="3:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="17"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C43" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="24"/>
+    </row>
+    <row r="49" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C49" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="25"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="22"/>
-    </row>
-    <row r="43" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C43" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="32"/>
-    </row>
-    <row r="49" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C49" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="20" t="s">
-        <v>70</v>
+      <c r="C51" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="20"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="20" t="s">
-        <v>63</v>
+      <c r="C53" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="33"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="44"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="59" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="12"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="20"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="65" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="37" t="s">
-        <v>62</v>
+      <c r="C65" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13025,7 +15846,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13042,268 +15863,268 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
-        <v>127</v>
+      <c r="C4" s="31" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F14"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="25"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="46" t="s">
-        <v>78</v>
+      <c r="C23" s="34" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="25"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="43" t="s">
-        <v>58</v>
+      <c r="C31" s="32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="32"/>
+      <c r="C32" s="24"/>
     </row>
     <row r="33" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="20" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="33"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="20"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="37" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="44"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="20"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="20"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="44" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="20" t="s">
+    <row r="49" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="20"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="37" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="20"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="20"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="64" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="37" t="s">
-        <v>62</v>
+      <c r="C64" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -13498,194 +16319,1029 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="118.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="2" width="4" style="121" customWidth="1"/>
+    <col min="3" max="3" width="118.7109375" style="121" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="121" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="121"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="120"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="122"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="125" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="128"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="129" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="130"/>
+    </row>
+    <row r="20" spans="3:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="132"/>
+    </row>
+    <row r="23" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="134" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="135"/>
+    </row>
+    <row r="31" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="136" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="138"/>
+    </row>
+    <row r="35" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="133" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="138"/>
+    </row>
+    <row r="40" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="133" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="140" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="141" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="129" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="130"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="130" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="121" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="121" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="130" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="130" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="121" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="130" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="130" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="130"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="130"/>
+    </row>
+    <row r="61" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="143"/>
+    </row>
+    <row r="63" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C63" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C64" s="144" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="130" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="130"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="130" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="130" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="130"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="130" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="130" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="130"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="130" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="130"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21505" r:id="rId4" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21506" r:id="rId5" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21507" r:id="rId6" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21508" r:id="rId7" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>904875</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21509" r:id="rId8" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21510" r:id="rId9" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21523" r:id="rId10" name="Check Box 83">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21524" r:id="rId11" name="Check Box 86">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21525" r:id="rId12" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21526" r:id="rId13" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21527" r:id="rId14" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21528" r:id="rId15" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21529" r:id="rId16" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21530" r:id="rId17" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21531" r:id="rId18" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21532" r:id="rId19" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21538" r:id="rId20" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21539" r:id="rId21" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21540" r:id="rId22" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21541" r:id="rId23" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="21542" r:id="rId24" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>914400</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="4" style="38" customWidth="1"/>
+    <col min="3" max="3" width="118.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="38" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="46"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="48"/>
+    </row>
+    <row r="21" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="25"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="50"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="50" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="20" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="52"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="50"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="50" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="37" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="50"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="44"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="20"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="37" t="s">
+    <row r="37" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="50"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="20"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="42" spans="3:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="37" t="s">
-        <v>62</v>
+      <c r="C42" s="51" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -13789,12 +17445,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13808,35 +17464,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="J2" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="J2" s="47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="C4" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="E4" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>81</v>
+      <c r="F4" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -13844,19 +17500,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>61</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
         <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -13864,244 +17520,241 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
         <v>107</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J12" s="47" t="s">
-        <v>82</v>
+      <c r="J12" s="35" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="47" t="s">
-        <v>83</v>
+      <c r="J19" s="35" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="20" t="s">
-        <v>61</v>
+      <c r="K20" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="47" t="s">
-        <v>84</v>
+      <c r="J27" s="35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="47" t="s">
-        <v>134</v>
+      <c r="J32" s="35" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="47" t="s">
-        <v>115</v>
+      <c r="J40" s="35" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
